--- a/stakeflows.xlsx
+++ b/stakeflows.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1556"/>
+  <dimension ref="A1:I1558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41971,7 +41971,9 @@
       <c r="D1458" t="n">
         <v>5606026.88001003</v>
       </c>
-      <c r="E1458" t="inlineStr"/>
+      <c r="E1458" t="n">
+        <v>0.001485715049678547</v>
+      </c>
       <c r="F1458" t="n">
         <v>-11225.78684422933</v>
       </c>
@@ -41998,7 +42000,9 @@
       <c r="D1459" t="n">
         <v>5601013.3959952</v>
       </c>
-      <c r="E1459" t="inlineStr"/>
+      <c r="E1459" t="n">
+        <v>0.001443882904734071</v>
+      </c>
       <c r="F1459" t="n">
         <v>-33722.1291928906</v>
       </c>
@@ -42025,7 +42029,9 @@
       <c r="D1460" t="n">
         <v>5597706.62124892</v>
       </c>
-      <c r="E1460" t="inlineStr"/>
+      <c r="E1460" t="n">
+        <v>0.001414250802454708</v>
+      </c>
       <c r="F1460" t="n">
         <v>-39286.61399144959</v>
       </c>
@@ -44629,6 +44635,60 @@
       </c>
       <c r="I1556" t="n">
         <v>0.01349933170189344</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B1557" s="2" t="n">
+        <v>43963</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>11488223.99047762</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>5671877.08000183</v>
+      </c>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="n">
+        <v>35321.90010903031</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>90959.68187753018</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>0.006266575768659743</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>0.01629833867602137</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B1558" s="2" t="n">
+        <v>43964</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>11493284.55844603</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>5676848.43956784</v>
+      </c>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="n">
+        <v>45574.49787198938</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>153649.2335707499</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>0.008093106168133746</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>0.02781888319434822</v>
       </c>
     </row>
   </sheetData>
